--- a/raw_data/20200818_saline/20200818_Sensor0_Test_73.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_73.xlsx
@@ -1,718 +1,1134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D8F4C-05E7-47B8-ACB5-365478EE7301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>64802.901560</v>
+        <v>64802.901559999998</v>
       </c>
       <c r="B2" s="1">
-        <v>18.000806</v>
+        <v>18.000806000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>898.919000</v>
+        <v>898.91899999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.136000</v>
+        <v>-197.136</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>64813.538383</v>
+        <v>64813.538382999999</v>
       </c>
       <c r="G2" s="1">
-        <v>18.003761</v>
+        <v>18.003761000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>916.118000</v>
+        <v>916.11800000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.281000</v>
+        <v>-167.28100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>64824.022668</v>
+        <v>64824.022667999998</v>
       </c>
       <c r="L2" s="1">
-        <v>18.006673</v>
+        <v>18.006672999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.145000</v>
+        <v>939.14499999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.213000</v>
+        <v>-120.21299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>64834.850336</v>
+        <v>64834.850336000003</v>
       </c>
       <c r="Q2" s="1">
         <v>18.009681</v>
       </c>
       <c r="R2" s="1">
-        <v>945.959000</v>
+        <v>945.95899999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.700000</v>
+        <v>-104.7</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>64845.430497</v>
+        <v>64845.430497000001</v>
       </c>
       <c r="V2" s="1">
-        <v>18.012620</v>
+        <v>18.012619999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>952.638000</v>
+        <v>952.63800000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.740100</v>
+        <v>-90.740099999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>64855.625299</v>
+        <v>64855.625298999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.015451</v>
+        <v>18.015450999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.090000</v>
+        <v>960.09</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.903800</v>
+        <v>-80.903800000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>64865.892490</v>
+        <v>64865.892489999998</v>
       </c>
       <c r="AF2" s="1">
         <v>18.018303</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.053000</v>
+        <v>965.053</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.423700</v>
+        <v>-80.423699999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>64875.972183</v>
+        <v>64875.972182999998</v>
       </c>
       <c r="AK2" s="1">
         <v>18.021103</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.995000</v>
+        <v>972.995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.826600</v>
+        <v>-87.826599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>64885.881227</v>
+        <v>64885.881226999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.023856</v>
+        <v>18.023855999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.214000</v>
+        <v>982.21400000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>64896.539292</v>
+        <v>64896.539292000001</v>
       </c>
       <c r="AU2" s="1">
         <v>18.026816</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.668000</v>
+        <v>993.66800000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.988000</v>
+        <v>-123.988</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>64907.609469</v>
+        <v>64907.609469000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>18.029892</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.606000</v>
+        <v>-142.60599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>64918.628612</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.032952</v>
+        <v>18.032952000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.020000</v>
+        <v>1049.02</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.635000</v>
+        <v>-226.63499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>64929.914097</v>
+        <v>64929.914097000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.036087</v>
+        <v>18.036086999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.790000</v>
+        <v>1128.79</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.704000</v>
+        <v>-360.70400000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>64940.977163</v>
+        <v>64940.977163000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.039160</v>
+        <v>18.039159999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1259.930000</v>
+        <v>1259.93</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.013000</v>
+        <v>-567.01300000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>64951.317960</v>
+        <v>64951.31796</v>
       </c>
       <c r="BT2" s="1">
         <v>18.042033</v>
       </c>
       <c r="BU2" s="1">
-        <v>1406.870000</v>
+        <v>1406.87</v>
       </c>
       <c r="BV2" s="1">
-        <v>-786.665000</v>
+        <v>-786.66499999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>64962.423349</v>
+        <v>64962.423348999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.045118</v>
+        <v>18.045117999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1566.630000</v>
+        <v>1566.63</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1015.730000</v>
+        <v>-1015.73</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>64973.637896</v>
@@ -721,30 +1137,30 @@
         <v>18.048233</v>
       </c>
       <c r="CE2" s="1">
-        <v>1969.210000</v>
+        <v>1969.21</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1550.950000</v>
+        <v>-1550.95</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>64803.302822</v>
+        <v>64803.302821999998</v>
       </c>
       <c r="B3" s="1">
-        <v>18.000917</v>
+        <v>18.000917000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>898.662000</v>
+        <v>898.66200000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.089000</v>
+        <v>-197.089</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>64813.910763</v>
@@ -753,163 +1169,163 @@
         <v>18.003864</v>
       </c>
       <c r="H3" s="1">
-        <v>916.248000</v>
+        <v>916.24800000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.317000</v>
+        <v>-167.31700000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>64824.718060</v>
+        <v>64824.718059999999</v>
       </c>
       <c r="L3" s="1">
-        <v>18.006866</v>
+        <v>18.006865999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>939.132000</v>
+        <v>939.13199999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.076000</v>
+        <v>-120.07599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>64835.273421</v>
+        <v>64835.273420999998</v>
       </c>
       <c r="Q3" s="1">
         <v>18.009798</v>
       </c>
       <c r="R3" s="1">
-        <v>945.974000</v>
+        <v>945.97400000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.646000</v>
+        <v>-104.646</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>64845.835728</v>
+        <v>64845.835727999998</v>
       </c>
       <c r="V3" s="1">
         <v>18.012732</v>
       </c>
       <c r="W3" s="1">
-        <v>952.692000</v>
+        <v>952.69200000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.744100</v>
+        <v>-90.744100000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>64855.972994</v>
+        <v>64855.972994000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.015548</v>
+        <v>18.015547999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.969000</v>
+        <v>959.96900000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.892300</v>
+        <v>-80.892300000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>64866.240644</v>
+        <v>64866.240643999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.018400</v>
+        <v>18.0184</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.963000</v>
+        <v>964.96299999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.355300</v>
+        <v>-80.3553</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>64876.354071</v>
+        <v>64876.354071000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.021209</v>
+        <v>18.021208999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.972000</v>
+        <v>972.97199999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.835300</v>
+        <v>-87.835300000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>64886.310313</v>
+        <v>64886.310313000002</v>
       </c>
       <c r="AP3" s="1">
         <v>18.023975</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.183000</v>
+        <v>982.18299999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.617000</v>
+        <v>-102.617</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>64896.971312</v>
+        <v>64896.971312000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.026936</v>
+        <v>18.026935999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.654000</v>
+        <v>993.654</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.000000</v>
+        <v>-124</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>64908.036525</v>
+        <v>64908.036525000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.030010</v>
+        <v>18.030010000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.609000</v>
+        <v>-142.60900000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>64918.991663</v>
+        <v>64918.991663000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.033053</v>
+        <v>18.033052999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.631000</v>
+        <v>-226.631</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>64930.289567</v>
@@ -918,76 +1334,76 @@
         <v>18.036192</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.741000</v>
+        <v>-360.74099999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>64941.395457</v>
+        <v>64941.395456999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.039277</v>
+        <v>18.039276999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1259.970000</v>
+        <v>1259.97</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.050000</v>
+        <v>-567.04999999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>64952.081299</v>
+        <v>64952.081298999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.042245</v>
+        <v>18.042245000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="BV3" s="1">
-        <v>-786.772000</v>
+        <v>-786.77200000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>64962.908933</v>
+        <v>64962.908932999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.045252</v>
+        <v>18.045252000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1566.650000</v>
+        <v>1566.65</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1015.820000</v>
+        <v>-1015.82</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>64974.184518</v>
+        <v>64974.184518000002</v>
       </c>
       <c r="CD3" s="1">
         <v>18.048385</v>
       </c>
       <c r="CE3" s="1">
-        <v>1970.220000</v>
+        <v>1970.22</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1549.620000</v>
+        <v>-1549.62</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>64803.957015</v>
       </c>
@@ -995,1009 +1411,1009 @@
         <v>18.001099</v>
       </c>
       <c r="C4" s="1">
-        <v>898.756000</v>
+        <v>898.75599999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.962000</v>
+        <v>-196.96199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>64814.566970</v>
+        <v>64814.56697</v>
       </c>
       <c r="G4" s="1">
-        <v>18.004046</v>
+        <v>18.004045999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>916.671000</v>
+        <v>916.67100000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.768000</v>
+        <v>-166.768</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>64825.093035</v>
+        <v>64825.093034999998</v>
       </c>
       <c r="L4" s="1">
-        <v>18.006970</v>
+        <v>18.006969999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.161000</v>
+        <v>939.16099999999994</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.089000</v>
+        <v>-120.089</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>64835.625612</v>
+        <v>64835.625612000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.009896</v>
+        <v>18.009896000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>945.989000</v>
+        <v>945.98900000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.634000</v>
+        <v>-104.634</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>64846.177472</v>
+        <v>64846.177472000003</v>
       </c>
       <c r="V4" s="1">
-        <v>18.012827</v>
+        <v>18.012827000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>952.591000</v>
+        <v>952.59100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.713400</v>
+        <v>-90.713399999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>64856.325617</v>
+        <v>64856.325617000002</v>
       </c>
       <c r="AA4" s="1">
         <v>18.015646</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.960000</v>
+        <v>959.96</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.882600</v>
+        <v>-80.882599999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>64866.596277</v>
+        <v>64866.596276999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.018499</v>
+        <v>18.018498999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.076000</v>
+        <v>965.07600000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.321300</v>
+        <v>-80.321299999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>64876.774680</v>
+        <v>64876.774680000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.021326</v>
+        <v>18.021325999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.982000</v>
+        <v>972.98199999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.832700</v>
+        <v>-87.832700000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>64886.641129</v>
+        <v>64886.641129000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.024067</v>
+        <v>18.024066999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.197000</v>
+        <v>982.197</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>64897.303100</v>
+        <v>64897.303099999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.027029</v>
+        <v>18.027028999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.646000</v>
+        <v>993.64599999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.975000</v>
+        <v>-123.97499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>64908.395165</v>
+        <v>64908.395165000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.030110</v>
+        <v>18.030110000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.610000</v>
+        <v>-142.61000000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>64919.347792</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.033152</v>
+        <v>18.033152000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.010000</v>
+        <v>1049.01</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.637000</v>
+        <v>-226.637</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>64930.665007</v>
+        <v>64930.665007000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>18.036296</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.700000</v>
+        <v>-360.7</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>64941.819082</v>
+        <v>64941.819082000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.039394</v>
+        <v>18.039394000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1259.940000</v>
+        <v>1259.94</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.027000</v>
+        <v>-567.02700000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>64952.585698</v>
+        <v>64952.585698000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.042385</v>
+        <v>18.042384999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="BV4" s="1">
-        <v>-786.798000</v>
+        <v>-786.798</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>64963.354374</v>
+        <v>64963.354374000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.045376</v>
+        <v>18.045376000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1566.610000</v>
+        <v>1566.61</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1015.700000</v>
+        <v>-1015.7</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>64974.700822</v>
+        <v>64974.700821999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.048528</v>
+        <v>18.048528000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1970.040000</v>
+        <v>1970.04</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1550.070000</v>
+        <v>-1550.07</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>64804.325543</v>
+        <v>64804.325542999999</v>
       </c>
       <c r="B5" s="1">
-        <v>18.001202</v>
+        <v>18.001201999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>898.820000</v>
+        <v>898.82</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.201000</v>
+        <v>-197.20099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>64814.942904</v>
+        <v>64814.942904000003</v>
       </c>
       <c r="G5" s="1">
         <v>18.004151</v>
       </c>
       <c r="H5" s="1">
-        <v>915.875000</v>
+        <v>915.875</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.878000</v>
+        <v>-166.87799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>64825.441227</v>
+        <v>64825.441227000003</v>
       </c>
       <c r="L5" s="1">
-        <v>18.007067</v>
+        <v>18.007066999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>939.274000</v>
+        <v>939.274</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.155000</v>
+        <v>-120.155</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>64835.973278</v>
+        <v>64835.973277999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.009993</v>
+        <v>18.009993000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>945.983000</v>
+        <v>945.98299999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.717000</v>
+        <v>-104.717</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>64846.521696</v>
+        <v>64846.521696000003</v>
       </c>
       <c r="V5" s="1">
-        <v>18.012923</v>
+        <v>18.012923000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>952.651000</v>
+        <v>952.65099999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.762600</v>
+        <v>-90.762600000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>64856.749202</v>
+        <v>64856.749201999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.015764</v>
+        <v>18.015764000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.968000</v>
+        <v>959.96799999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-81.052300</v>
+        <v>-81.052300000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>64867.085332</v>
+        <v>64867.085332000002</v>
       </c>
       <c r="AF5" s="1">
         <v>18.018635</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.140000</v>
+        <v>965.14</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.274300</v>
+        <v>-80.274299999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>64877.074761</v>
+        <v>64877.074761000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.021410</v>
+        <v>18.021409999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.993000</v>
+        <v>972.99300000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.836800</v>
+        <v>-87.836799999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>64887.003709</v>
+        <v>64887.003708999997</v>
       </c>
       <c r="AP5" s="1">
         <v>18.024168</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.186000</v>
+        <v>982.18600000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.604000</v>
+        <v>-102.604</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>64897.665179</v>
+        <v>64897.665179000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.027129</v>
+        <v>18.027128999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.656000</v>
+        <v>993.65599999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.978000</v>
+        <v>-123.97799999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>64908.755233</v>
+        <v>64908.755233000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.030210</v>
+        <v>18.03021</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.613000</v>
+        <v>-142.613</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>64920.078971</v>
+        <v>64920.078971000003</v>
       </c>
       <c r="BE5" s="1">
         <v>18.033355</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.010000</v>
+        <v>1049.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.637000</v>
+        <v>-226.637</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>64931.079201</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.036411</v>
+        <v>18.036411000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.728000</v>
+        <v>-360.72800000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>64942.211408</v>
+        <v>64942.211408000003</v>
       </c>
       <c r="BO5" s="1">
         <v>18.039503</v>
       </c>
       <c r="BP5" s="1">
-        <v>1259.960000</v>
+        <v>1259.96</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-566.992000</v>
+        <v>-566.99199999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>64953.019734</v>
+        <v>64953.019734000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.042505</v>
+        <v>18.042504999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1406.890000</v>
+        <v>1406.89</v>
       </c>
       <c r="BV5" s="1">
-        <v>-786.813000</v>
+        <v>-786.81299999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>64963.813171</v>
+        <v>64963.813171000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.045504</v>
+        <v>18.045504000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1566.570000</v>
+        <v>1566.57</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1015.650000</v>
+        <v>-1015.65</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>64975.566870</v>
+        <v>64975.566870000002</v>
       </c>
       <c r="CD5" s="1">
         <v>18.048769</v>
       </c>
       <c r="CE5" s="1">
-        <v>1969.110000</v>
+        <v>1969.11</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1551.330000</v>
+        <v>-1551.33</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>64804.668279</v>
+        <v>64804.668278999998</v>
       </c>
       <c r="B6" s="1">
-        <v>18.001297</v>
+        <v>18.001297000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>898.879000</v>
+        <v>898.87900000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.054000</v>
+        <v>-197.054</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>64815.289111</v>
+        <v>64815.289110999998</v>
       </c>
       <c r="G6" s="1">
-        <v>18.004247</v>
+        <v>18.004246999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>916.303000</v>
+        <v>916.303</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.269000</v>
+        <v>-167.26900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>64825.785978</v>
       </c>
       <c r="L6" s="1">
-        <v>18.007163</v>
+        <v>18.007162999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>939.252000</v>
+        <v>939.25199999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.161000</v>
+        <v>-120.161</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>64836.395904</v>
+        <v>64836.395903999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.010110</v>
+        <v>18.010110000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>945.991000</v>
+        <v>945.99099999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.686000</v>
+        <v>-104.68600000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>64846.943294</v>
+        <v>64846.943293999997</v>
       </c>
       <c r="V6" s="1">
-        <v>18.013040</v>
+        <v>18.01304</v>
       </c>
       <c r="W6" s="1">
-        <v>952.616000</v>
+        <v>952.61599999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.720800</v>
+        <v>-90.720799999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>64857.027952</v>
+        <v>64857.027951999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.015841</v>
+        <v>18.015841000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.996000</v>
+        <v>959.99599999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.895200</v>
+        <v>-80.895200000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>64867.281747</v>
+        <v>64867.281747000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.018689</v>
+        <v>18.018688999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.137000</v>
+        <v>965.13699999999994</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.086400</v>
+        <v>-80.086399999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>64877.423943</v>
+        <v>64877.423943000002</v>
       </c>
       <c r="AK6" s="1">
         <v>18.021507</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.984000</v>
+        <v>972.98400000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.849200</v>
+        <v>-87.849199999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>64887.352392</v>
+        <v>64887.352392000001</v>
       </c>
       <c r="AP6" s="1">
         <v>18.024265</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.222000</v>
+        <v>982.22199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.571000</v>
+        <v>-102.571</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>64898.032746</v>
+        <v>64898.032745999997</v>
       </c>
       <c r="AU6" s="1">
         <v>18.027231</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.649000</v>
+        <v>993.649</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.998000</v>
+        <v>-123.998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>64909.470955</v>
+        <v>64909.470954999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.030409</v>
+        <v>18.030408999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.580000</v>
+        <v>-142.58000000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>64920.457341</v>
+        <v>64920.457341000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.033460</v>
+        <v>18.033460000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.635000</v>
+        <v>-226.63499999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>64931.439790</v>
+        <v>64931.439789999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.036511</v>
+        <v>18.036511000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.717000</v>
+        <v>-360.71699999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>64942.633477</v>
+        <v>64942.633477000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.039620</v>
+        <v>18.039619999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1259.920000</v>
+        <v>1259.92</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.026000</v>
+        <v>-567.02599999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>64953.748321</v>
+        <v>64953.748320999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.042708</v>
+        <v>18.042708000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="BV6" s="1">
-        <v>-786.829000</v>
+        <v>-786.82899999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>64964.569042</v>
+        <v>64964.569042000003</v>
       </c>
       <c r="BY6" s="1">
         <v>18.045714</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1566.650000</v>
+        <v>1566.65</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>64975.784581</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.048829</v>
+        <v>18.048829000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1970.130000</v>
+        <v>1970.13</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1549.820000</v>
+        <v>-1549.82</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>64805.007541</v>
+        <v>64805.007540999999</v>
       </c>
       <c r="B7" s="1">
-        <v>18.001391</v>
+        <v>18.001391000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>898.908000</v>
+        <v>898.90800000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.106000</v>
+        <v>-197.10599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>64815.632343</v>
+        <v>64815.632342999997</v>
       </c>
       <c r="G7" s="1">
-        <v>18.004342</v>
+        <v>18.004342000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>916.444000</v>
+        <v>916.44399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.113000</v>
+        <v>-167.113</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>64826.207547</v>
+        <v>64826.207546999998</v>
       </c>
       <c r="L7" s="1">
-        <v>18.007280</v>
+        <v>18.007280000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>939.248000</v>
+        <v>939.24800000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.191000</v>
+        <v>-120.191</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>64836.675117</v>
+        <v>64836.675116999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.010188</v>
+        <v>18.010187999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>945.989000</v>
+        <v>945.98900000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.691000</v>
+        <v>-104.691</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>64847.210669</v>
       </c>
       <c r="V7" s="1">
-        <v>18.013114</v>
+        <v>18.013114000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>952.746000</v>
+        <v>952.74599999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.650300</v>
+        <v>-90.650300000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>64857.375648</v>
+        <v>64857.375648000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.015938</v>
+        <v>18.015937999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.060000</v>
+        <v>960.06</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.825300</v>
+        <v>-80.825299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>64867.623490</v>
+        <v>64867.623489999998</v>
       </c>
       <c r="AF7" s="1">
         <v>18.018784</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.958000</v>
+        <v>964.95799999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.385300</v>
+        <v>-80.385300000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>64877.769654</v>
+        <v>64877.769654000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.021603</v>
+        <v>18.021602999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.978000</v>
+        <v>972.97799999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.840900</v>
+        <v>-87.840900000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>64888.083992</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.024468</v>
+        <v>18.024467999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.200000</v>
+        <v>982.2</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.605000</v>
+        <v>-102.605</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>64898.762858</v>
+        <v>64898.762858000002</v>
       </c>
       <c r="AU7" s="1">
         <v>18.027434</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.663000</v>
+        <v>993.66300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.992000</v>
+        <v>-123.992</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>64909.832570</v>
+        <v>64909.832569999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.030509</v>
+        <v>18.030508999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.602000</v>
+        <v>-142.602</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>64920.817932</v>
+        <v>64920.817931999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.033561</v>
+        <v>18.033560999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.000000</v>
+        <v>1049</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.634000</v>
+        <v>-226.63399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>64931.815231</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.036615</v>
+        <v>18.036615000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.717000</v>
+        <v>-360.71699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>64943.343511</v>
+        <v>64943.343510999999</v>
       </c>
       <c r="BO7" s="1">
         <v>18.039818</v>
       </c>
       <c r="BP7" s="1">
-        <v>1259.920000</v>
+        <v>1259.92</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.041000</v>
+        <v>-567.04100000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>64953.867889</v>
+        <v>64953.867889000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.042741</v>
+        <v>18.042740999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1406.870000</v>
+        <v>1406.87</v>
       </c>
       <c r="BV7" s="1">
-        <v>-786.908000</v>
+        <v>-786.90800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>64964.710436</v>
+        <v>64964.710436000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.045753</v>
+        <v>18.045753000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1566.660000</v>
+        <v>1566.66</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1015.710000</v>
+        <v>-1015.71</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>64976.301411</v>
@@ -2006,45 +2422,45 @@
         <v>18.048973</v>
       </c>
       <c r="CE7" s="1">
-        <v>1968.610000</v>
+        <v>1968.61</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1549.140000</v>
+        <v>-1549.14</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>64805.433110</v>
+        <v>64805.433109999998</v>
       </c>
       <c r="B8" s="1">
-        <v>18.001509</v>
+        <v>18.001508999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>898.624000</v>
+        <v>898.62400000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.063000</v>
+        <v>-197.06299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>64816.048524</v>
+        <v>64816.048523999998</v>
       </c>
       <c r="G8" s="1">
         <v>18.004458</v>
       </c>
       <c r="H8" s="1">
-        <v>916.351000</v>
+        <v>916.351</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.859000</v>
+        <v>-166.85900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>64826.499226</v>
@@ -2053,435 +2469,435 @@
         <v>18.007361</v>
       </c>
       <c r="M8" s="1">
-        <v>939.144000</v>
+        <v>939.14400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.062000</v>
+        <v>-120.062</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>64837.022346</v>
+        <v>64837.022345999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.010284</v>
+        <v>18.010283999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>945.934000</v>
+        <v>945.93399999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.675000</v>
+        <v>-104.675</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>64847.554861</v>
+        <v>64847.554860999997</v>
       </c>
       <c r="V8" s="1">
-        <v>18.013210</v>
+        <v>18.013210000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>952.586000</v>
+        <v>952.58600000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.702300</v>
+        <v>-90.702299999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>64857.724832</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.016035</v>
+        <v>18.016034999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.039000</v>
+        <v>960.03899999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.994100</v>
+        <v>-80.994100000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>64868.309953</v>
+        <v>64868.309953000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.018975</v>
+        <v>18.018975000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.168000</v>
+        <v>965.16800000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.262400</v>
+        <v>-80.2624</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>64878.468517</v>
+        <v>64878.468517000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.021797</v>
+        <v>18.021796999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.985000</v>
+        <v>972.98500000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.810500</v>
+        <v>-87.810500000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>64888.472823</v>
+        <v>64888.472822999996</v>
       </c>
       <c r="AP8" s="1">
         <v>18.024576</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.193000</v>
+        <v>982.19299999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.615000</v>
+        <v>-102.61499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>64899.155161</v>
+        <v>64899.155161000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.027543</v>
+        <v>18.027543000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.628000</v>
+        <v>993.62800000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.999000</v>
+        <v>-123.999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>64910.188179</v>
+        <v>64910.188178999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.030608</v>
+        <v>18.030608000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.602000</v>
+        <v>-142.602</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>64921.492491</v>
+        <v>64921.492490999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.033748</v>
+        <v>18.033747999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.637000</v>
+        <v>-226.637</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>64932.507149</v>
+        <v>64932.507148999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.036808</v>
+        <v>18.036808000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.720000</v>
+        <v>-360.72</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>64943.452895</v>
+        <v>64943.452895000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.039848</v>
+        <v>18.039847999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.010000</v>
+        <v>-567.01</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>64954.287504</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.042858</v>
+        <v>18.042857999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1406.910000</v>
+        <v>1406.91</v>
       </c>
       <c r="BV8" s="1">
-        <v>-786.915000</v>
+        <v>-786.91499999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>64965.130548</v>
+        <v>64965.130548000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.045870</v>
+        <v>18.045870000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1566.620000</v>
+        <v>1566.62</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1015.840000</v>
+        <v>-1015.84</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>64976.820228</v>
+        <v>64976.820227999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.049117</v>
+        <v>18.049116999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1968.350000</v>
+        <v>1968.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1550.670000</v>
+        <v>-1550.67</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>64805.705961</v>
       </c>
       <c r="B9" s="1">
-        <v>18.001585</v>
+        <v>18.001584999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>898.855000</v>
+        <v>898.85500000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.130000</v>
+        <v>-197.13</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>64816.330710</v>
+        <v>64816.330710000002</v>
       </c>
       <c r="G9" s="1">
-        <v>18.004536</v>
+        <v>18.004536000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>916.216000</v>
+        <v>916.21600000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.617000</v>
+        <v>-167.61699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>64826.844905</v>
+        <v>64826.844904999998</v>
       </c>
       <c r="L9" s="1">
-        <v>18.007457</v>
+        <v>18.007456999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>939.258000</v>
+        <v>939.25800000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.122000</v>
+        <v>-120.122</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>64837.372524</v>
+        <v>64837.372523999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.010381</v>
+        <v>18.010380999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>945.971000</v>
+        <v>945.971</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.658000</v>
+        <v>-104.658</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>64847.898093</v>
+        <v>64847.898093000003</v>
       </c>
       <c r="V9" s="1">
-        <v>18.013305</v>
+        <v>18.013304999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>952.591000</v>
+        <v>952.59100000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.695100</v>
+        <v>-90.695099999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>64858.423200</v>
+        <v>64858.423199999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.016229</v>
+        <v>18.016228999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.008000</v>
+        <v>960.00800000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.831700</v>
+        <v>-80.831699999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>64868.652193</v>
+        <v>64868.652193000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.019070</v>
+        <v>18.019069999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.886000</v>
+        <v>964.88599999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.237300</v>
+        <v>-80.237300000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>64878.819715</v>
+        <v>64878.819714999998</v>
       </c>
       <c r="AK9" s="1">
         <v>18.021894</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.024000</v>
+        <v>973.024</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.838300</v>
+        <v>-87.838300000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>64888.829944</v>
+        <v>64888.829943999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.024675</v>
+        <v>18.024674999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.220000</v>
+        <v>982.22</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.610000</v>
+        <v>-102.61</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>64899.521208</v>
+        <v>64899.521207999998</v>
       </c>
       <c r="AU9" s="1">
         <v>18.027645</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.654000</v>
+        <v>993.654</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.998000</v>
+        <v>-123.998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>64910.867193</v>
+        <v>64910.867192999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.030796</v>
+        <v>18.030795999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.587000</v>
+        <v>-142.58699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>64921.936412</v>
+        <v>64921.936412000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.033871</v>
+        <v>18.033871000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.627000</v>
+        <v>-226.62700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>64932.941644</v>
+        <v>64932.941643999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>18.036928</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.722000</v>
+        <v>-360.72199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>64943.875486</v>
+        <v>64943.875485999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.039965</v>
+        <v>18.039964999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.055000</v>
+        <v>-567.05499999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>64954.717999</v>
@@ -2490,1782 +2906,1782 @@
         <v>18.042977</v>
       </c>
       <c r="BU9" s="1">
-        <v>1406.830000</v>
+        <v>1406.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-786.851000</v>
+        <v>-786.851</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>64965.555089</v>
+        <v>64965.555089000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.045988</v>
+        <v>18.045988000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1566.730000</v>
+        <v>1566.73</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1015.700000</v>
+        <v>-1015.7</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>64977.336098</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.049260</v>
+        <v>18.04926</v>
       </c>
       <c r="CE9" s="1">
-        <v>1968.050000</v>
+        <v>1968.05</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1550.380000</v>
+        <v>-1550.38</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>64806.046660</v>
+        <v>64806.04666</v>
       </c>
       <c r="B10" s="1">
-        <v>18.001680</v>
+        <v>18.00168</v>
       </c>
       <c r="C10" s="1">
-        <v>898.908000</v>
+        <v>898.90800000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.930000</v>
+        <v>-196.93</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>64816.693287</v>
+        <v>64816.693287000002</v>
       </c>
       <c r="G10" s="1">
-        <v>18.004637</v>
+        <v>18.004636999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>916.204000</v>
+        <v>916.20399999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.066000</v>
+        <v>-167.066</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>64827.189656</v>
+        <v>64827.189656000002</v>
       </c>
       <c r="L10" s="1">
-        <v>18.007553</v>
+        <v>18.007553000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.168000</v>
+        <v>939.16800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.051000</v>
+        <v>-120.051</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>64838.066393</v>
+        <v>64838.066393000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.010574</v>
+        <v>18.010573999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>946.015000</v>
+        <v>946.01499999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.670000</v>
+        <v>-104.67</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>64848.585276</v>
+        <v>64848.585275999998</v>
       </c>
       <c r="V10" s="1">
         <v>18.013496</v>
       </c>
       <c r="W10" s="1">
-        <v>952.604000</v>
+        <v>952.60400000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.764600</v>
+        <v>-90.764600000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>64858.771918</v>
+        <v>64858.771917999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.016326</v>
+        <v>18.016325999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.014000</v>
+        <v>960.01400000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.935900</v>
+        <v>-80.935900000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>64868.997937</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.019166</v>
+        <v>18.019165999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.185000</v>
+        <v>965.18499999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.152600</v>
+        <v>-80.152600000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>64879.165396</v>
+        <v>64879.165395999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.021990</v>
+        <v>18.021989999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.964000</v>
+        <v>972.96400000000006</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.869000</v>
+        <v>-87.869</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>64889.514421</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.024865</v>
+        <v>18.024864999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.201000</v>
+        <v>982.20100000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.603000</v>
+        <v>-102.60299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>64900.200232</v>
+        <v>64900.200232000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.027833</v>
+        <v>18.027833000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.624000</v>
+        <v>993.62400000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.985000</v>
+        <v>-123.985</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>64911.266507</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.030907</v>
+        <v>18.030906999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.600000</v>
+        <v>-142.6</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>64922.297996</v>
+        <v>64922.297996000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.033972</v>
+        <v>18.033971999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.628000</v>
+        <v>-226.62799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>64933.319099</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.037033</v>
+        <v>18.037033000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.704000</v>
+        <v>-360.70400000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>64944.274270</v>
+        <v>64944.274270000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.040076</v>
+        <v>18.040075999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1259.970000</v>
+        <v>1259.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.028000</v>
+        <v>-567.02800000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>64955.141088</v>
+        <v>64955.141087999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.043095</v>
+        <v>18.043095000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1406.920000</v>
+        <v>1406.92</v>
       </c>
       <c r="BV10" s="1">
-        <v>-786.934000</v>
+        <v>-786.93399999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>64965.983634</v>
+        <v>64965.983633999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.046107</v>
+        <v>18.046106999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1566.570000</v>
+        <v>1566.57</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1015.560000</v>
+        <v>-1015.56</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>64977.890607</v>
+        <v>64977.890607000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.049414</v>
+        <v>18.049413999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1968.380000</v>
+        <v>1968.38</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1549.250000</v>
+        <v>-1549.25</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>64806.605155</v>
+        <v>64806.605154999997</v>
       </c>
       <c r="B11" s="1">
         <v>18.001835</v>
       </c>
       <c r="C11" s="1">
-        <v>898.723000</v>
+        <v>898.72299999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.238000</v>
+        <v>-197.238</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>64817.293972</v>
+        <v>64817.293971999999</v>
       </c>
       <c r="G11" s="1">
         <v>18.004804</v>
       </c>
       <c r="H11" s="1">
-        <v>916.697000</v>
+        <v>916.697</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.241000</v>
+        <v>-167.24100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>64827.883529</v>
+        <v>64827.883528999999</v>
       </c>
       <c r="L11" s="1">
         <v>18.007745</v>
       </c>
       <c r="M11" s="1">
-        <v>939.157000</v>
+        <v>939.15700000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.995000</v>
+        <v>-119.995</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>64838.414121</v>
+        <v>64838.414121000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.010671</v>
+        <v>18.010670999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>945.974000</v>
+        <v>945.97400000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.679000</v>
+        <v>-104.679</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>64848.928297</v>
+        <v>64848.928296999999</v>
       </c>
       <c r="V11" s="1">
-        <v>18.013591</v>
+        <v>18.013591000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>952.654000</v>
+        <v>952.654</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.688900</v>
+        <v>-90.688900000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>64859.122589</v>
+        <v>64859.122588999999</v>
       </c>
       <c r="AA11" s="1">
         <v>18.016423</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.089000</v>
+        <v>960.08900000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.881400</v>
+        <v>-80.881399999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>64869.661585</v>
+        <v>64869.661585000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.019350</v>
+        <v>18.019349999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.993000</v>
+        <v>964.99300000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.246700</v>
+        <v>-80.246700000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>64879.827058</v>
+        <v>64879.827058000003</v>
       </c>
       <c r="AK11" s="1">
         <v>18.022174</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.996000</v>
+        <v>972.99599999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.829800</v>
+        <v>-87.829800000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>64889.941012</v>
+        <v>64889.941012000003</v>
       </c>
       <c r="AP11" s="1">
         <v>18.024984</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.208000</v>
+        <v>982.20799999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.617000</v>
+        <v>-102.617</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>64900.617863</v>
+        <v>64900.617862999999</v>
       </c>
       <c r="AU11" s="1">
         <v>18.027949</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.650000</v>
+        <v>993.65</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.978000</v>
+        <v>-123.97799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>64911.653880</v>
+        <v>64911.653879999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>18.031015</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.599000</v>
+        <v>-142.59899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>64922.660075</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.034072</v>
+        <v>18.034071999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.010000</v>
+        <v>1049.01</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.639000</v>
+        <v>-226.63900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>64933.692091</v>
+        <v>64933.692090999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.037137</v>
+        <v>18.037137000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.790000</v>
+        <v>1128.79</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.718000</v>
+        <v>-360.71800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>64944.701327</v>
+        <v>64944.701327000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.040195</v>
+        <v>18.040195000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.040000</v>
+        <v>-567.04</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>64955.556239</v>
+        <v>64955.556238999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.043210</v>
+        <v>18.043209999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="BV11" s="1">
-        <v>-786.912000</v>
+        <v>-786.91200000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>64966.421104</v>
+        <v>64966.421104000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.046228</v>
+        <v>18.046227999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1566.590000</v>
+        <v>1566.59</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1015.830000</v>
+        <v>-1015.83</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>64978.419825</v>
+        <v>64978.419824999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.049561</v>
+        <v>18.049561000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1968.670000</v>
+        <v>1968.67</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1550.930000</v>
+        <v>-1550.93</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>64807.293603</v>
+        <v>64807.293602999998</v>
       </c>
       <c r="B12" s="1">
-        <v>18.002026</v>
+        <v>18.002026000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>898.773000</v>
+        <v>898.77300000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.083000</v>
+        <v>-197.083</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>64817.726948</v>
+        <v>64817.726948000003</v>
       </c>
       <c r="G12" s="1">
-        <v>18.004924</v>
+        <v>18.004923999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>916.285000</v>
+        <v>916.28499999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.119000</v>
+        <v>-167.119</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>64828.227256</v>
+        <v>64828.227255999998</v>
       </c>
       <c r="L12" s="1">
-        <v>18.007841</v>
+        <v>18.007840999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>939.168000</v>
+        <v>939.16800000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.154000</v>
+        <v>-120.154</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>64838.766782</v>
+        <v>64838.766781999999</v>
       </c>
       <c r="Q12" s="1">
         <v>18.010769</v>
       </c>
       <c r="R12" s="1">
-        <v>945.970000</v>
+        <v>945.97</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.714000</v>
+        <v>-104.714</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>64849.274528</v>
+        <v>64849.274528000002</v>
       </c>
       <c r="V12" s="1">
-        <v>18.013687</v>
+        <v>18.013687000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>952.635000</v>
+        <v>952.63499999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.736700</v>
+        <v>-90.736699999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>64859.779295</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.016605</v>
+        <v>18.016604999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.011000</v>
+        <v>960.01099999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.914900</v>
+        <v>-80.914900000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>64870.031072</v>
+        <v>64870.031071999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.019453</v>
+        <v>18.019452999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.776000</v>
+        <v>964.77599999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.213000</v>
+        <v>-80.212999999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>64880.211954</v>
+        <v>64880.211953999999</v>
       </c>
       <c r="AK12" s="1">
         <v>18.022281</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.995000</v>
+        <v>972.995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.846700</v>
+        <v>-87.846699999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>64890.302070</v>
+        <v>64890.302069999998</v>
       </c>
       <c r="AP12" s="1">
         <v>18.025084</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.189000</v>
+        <v>982.18899999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.607000</v>
+        <v>-102.607</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>64900.976966</v>
+        <v>64900.976966000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.028049</v>
+        <v>18.028048999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.665000</v>
+        <v>993.66499999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.978000</v>
+        <v>-123.97799999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>64912.012457</v>
+        <v>64912.012456999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>18.031115</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.582000</v>
+        <v>-142.58199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>64923.084154</v>
+        <v>64923.084153999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.034190</v>
+        <v>18.034189999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.000000</v>
+        <v>1049</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.631000</v>
+        <v>-226.631</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>64934.161308</v>
+        <v>64934.161308000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>18.037267</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.715000</v>
+        <v>-360.71499999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>64945.092637</v>
+        <v>64945.092637000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.040304</v>
+        <v>18.040303999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.006000</v>
+        <v>-567.00599999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>64955.986270</v>
+        <v>64955.986270000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.043330</v>
+        <v>18.043330000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1406.920000</v>
+        <v>1406.92</v>
       </c>
       <c r="BV12" s="1">
-        <v>-786.964000</v>
+        <v>-786.96400000000006</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>64966.843200</v>
+        <v>64966.843200000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.046345</v>
+        <v>18.046344999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1566.610000</v>
+        <v>1566.61</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1015.830000</v>
+        <v>-1015.83</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>64978.938143</v>
+        <v>64978.938142999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.049705</v>
+        <v>18.049704999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1970.090000</v>
+        <v>1970.09</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1550.370000</v>
+        <v>-1550.37</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>64807.632898</v>
+        <v>64807.632898000003</v>
       </c>
       <c r="B13" s="1">
-        <v>18.002120</v>
+        <v>18.002120000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>898.862000</v>
+        <v>898.86199999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.172000</v>
+        <v>-197.172</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>64818.069230</v>
+        <v>64818.069230000001</v>
       </c>
       <c r="G13" s="1">
-        <v>18.005019</v>
+        <v>18.005019000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.480000</v>
+        <v>916.48</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.315000</v>
+        <v>-167.315</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>64828.575943</v>
+        <v>64828.575943000003</v>
       </c>
       <c r="L13" s="1">
-        <v>18.007938</v>
+        <v>18.007937999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>939.104000</v>
+        <v>939.10400000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.921000</v>
+        <v>-119.92100000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>64839.421495</v>
+        <v>64839.421495000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.010950</v>
+        <v>18.010950000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>945.942000</v>
+        <v>945.94200000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.693000</v>
+        <v>-104.693</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>64849.950042</v>
+        <v>64849.950041999997</v>
       </c>
       <c r="V13" s="1">
-        <v>18.013875</v>
+        <v>18.013874999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>952.623000</v>
+        <v>952.62300000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.757600</v>
+        <v>-90.757599999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>64860.164654</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.016712</v>
+        <v>18.016711999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.995000</v>
+        <v>959.995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.934100</v>
+        <v>-80.934100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>64870.371823</v>
+        <v>64870.371823000001</v>
       </c>
       <c r="AF13" s="1">
         <v>18.019548</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.062000</v>
+        <v>965.06200000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.276900</v>
+        <v>-80.276899999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>64880.558658</v>
+        <v>64880.558658000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.022377</v>
+        <v>18.022376999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.970000</v>
+        <v>972.97</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.809700</v>
+        <v>-87.809700000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>64890.660676</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.025184</v>
+        <v>18.025183999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.193000</v>
+        <v>982.19299999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.617000</v>
+        <v>-102.617</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>64901.407035</v>
+        <v>64901.407034999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.028169</v>
+        <v>18.028168999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.631000</v>
+        <v>993.63099999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.996000</v>
+        <v>-123.996</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>64912.428627</v>
+        <v>64912.428627000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.031230</v>
+        <v>18.031230000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.595000</v>
+        <v>-142.595</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>64923.381289</v>
+        <v>64923.381288999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.034273</v>
+        <v>18.034272999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.646000</v>
+        <v>-226.64599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>64934.480234</v>
+        <v>64934.480234000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.037356</v>
+        <v>18.037355999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.716000</v>
+        <v>-360.71600000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>64945.516747</v>
+        <v>64945.516747000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.040421</v>
+        <v>18.040420999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1259.960000</v>
+        <v>1259.96</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.042000</v>
+        <v>-567.04200000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>64956.396956</v>
+        <v>64956.396955999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.043444</v>
+        <v>18.043444000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1406.770000</v>
+        <v>1406.77</v>
       </c>
       <c r="BV13" s="1">
-        <v>-787.002000</v>
+        <v>-787.00199999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>64967.266298</v>
+        <v>64967.266298000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.046463</v>
+        <v>18.046462999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1566.700000</v>
+        <v>1566.7</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1015.840000</v>
+        <v>-1015.84</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>64979.456462</v>
+        <v>64979.456462000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.049849</v>
+        <v>18.049848999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1969.490000</v>
+        <v>1969.49</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1549.170000</v>
+        <v>-1549.17</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>64807.980594</v>
+        <v>64807.980594000001</v>
       </c>
       <c r="B14" s="1">
-        <v>18.002217</v>
+        <v>18.002217000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>898.771000</v>
+        <v>898.77099999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.048000</v>
+        <v>-197.048</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>64818.722915</v>
+        <v>64818.722914999998</v>
       </c>
       <c r="G14" s="1">
         <v>18.005201</v>
       </c>
       <c r="H14" s="1">
-        <v>916.185000</v>
+        <v>916.18499999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.877000</v>
+        <v>-166.87700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>64829.233673</v>
+        <v>64829.233673000002</v>
       </c>
       <c r="L14" s="1">
-        <v>18.008120</v>
+        <v>18.008120000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>939.149000</v>
+        <v>939.149</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.064000</v>
+        <v>-120.06399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>64839.811319</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.011059</v>
+        <v>18.011058999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>945.968000</v>
+        <v>945.96799999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.646000</v>
+        <v>-104.646</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>64850.310634</v>
+        <v>64850.310634000001</v>
       </c>
       <c r="V14" s="1">
-        <v>18.013975</v>
+        <v>18.013974999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>952.618000</v>
+        <v>952.61800000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.769000</v>
+        <v>-90.769000000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>64860.515821</v>
+        <v>64860.515821000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.016810</v>
+        <v>18.01681</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.992000</v>
+        <v>959.99199999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.881900</v>
+        <v>-80.881900000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>64870.718528</v>
+        <v>64870.718527999998</v>
       </c>
       <c r="AF14" s="1">
         <v>18.019644</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.048000</v>
+        <v>965.048</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.329600</v>
+        <v>-80.329599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>64880.907841</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.022474</v>
+        <v>18.022473999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.969000</v>
+        <v>972.96900000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.853400</v>
+        <v>-87.853399999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>64891.084755</v>
+        <v>64891.084755000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.025301</v>
+        <v>18.025300999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.194000</v>
+        <v>982.19399999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.594000</v>
+        <v>-102.59399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>64901.708566</v>
+        <v>64901.708566000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.028252</v>
+        <v>18.028251999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.642000</v>
+        <v>993.64200000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.006000</v>
+        <v>-124.006</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>64912.731655</v>
+        <v>64912.731655000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.031314</v>
+        <v>18.031313999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.618000</v>
+        <v>-142.61799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>64923.741880</v>
+        <v>64923.741880000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.034373</v>
+        <v>18.034372999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.675000</v>
+        <v>-226.67500000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>64934.849790</v>
+        <v>64934.84979</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.037458</v>
+        <v>18.037458000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.680000</v>
+        <v>-360.68</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>64945.913019</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.040531</v>
+        <v>18.040531000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1259.920000</v>
+        <v>1259.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-566.991000</v>
+        <v>-566.99099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>64956.828478</v>
+        <v>64956.828478000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.043563</v>
+        <v>18.043562999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1406.790000</v>
+        <v>1406.79</v>
       </c>
       <c r="BV14" s="1">
-        <v>-786.951000</v>
+        <v>-786.95100000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>64967.715168</v>
+        <v>64967.715168000002</v>
       </c>
       <c r="BY14" s="1">
         <v>18.046588</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1566.570000</v>
+        <v>1566.57</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1015.810000</v>
+        <v>-1015.81</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>64979.972800</v>
+        <v>64979.972800000003</v>
       </c>
       <c r="CD14" s="1">
         <v>18.049992</v>
       </c>
       <c r="CE14" s="1">
-        <v>1968.330000</v>
+        <v>1968.33</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1549.730000</v>
+        <v>-1549.73</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>64808.632802</v>
       </c>
       <c r="B15" s="1">
-        <v>18.002398</v>
+        <v>18.002397999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>898.639000</v>
+        <v>898.63900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.970000</v>
+        <v>-196.97</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>64819.106324</v>
       </c>
       <c r="G15" s="1">
-        <v>18.005307</v>
+        <v>18.005306999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>916.496000</v>
+        <v>916.49599999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.482000</v>
+        <v>-167.482</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>64829.613574</v>
+        <v>64829.613574000003</v>
       </c>
       <c r="L15" s="1">
-        <v>18.008226</v>
+        <v>18.008226000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>939.073000</v>
+        <v>939.07299999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.031000</v>
+        <v>-120.03100000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>64840.158055</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.011155</v>
+        <v>18.011154999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>945.956000</v>
+        <v>945.95600000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.673000</v>
+        <v>-104.673</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>64850.659817</v>
       </c>
       <c r="V15" s="1">
-        <v>18.014072</v>
+        <v>18.014071999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>952.633000</v>
+        <v>952.63300000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.949300</v>
+        <v>-90.949299999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>64860.863549</v>
+        <v>64860.863549000002</v>
       </c>
       <c r="AA15" s="1">
         <v>18.016907</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.031000</v>
+        <v>960.03099999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.880800</v>
+        <v>-80.880799999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>64871.130703</v>
+        <v>64871.130703000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.019759</v>
+        <v>18.019759000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.009000</v>
+        <v>965.00900000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.503300</v>
+        <v>-80.503299999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>64881.336417</v>
+        <v>64881.336416999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.022593</v>
+        <v>18.022593000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.970000</v>
+        <v>972.97</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.826200</v>
+        <v>-87.8262</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>64891.379907</v>
+        <v>64891.379907000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.025383</v>
+        <v>18.025383000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.198000</v>
+        <v>982.19799999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.621000</v>
+        <v>-102.621</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>64902.070677</v>
+        <v>64902.070677000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.028353</v>
+        <v>18.028352999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.644000</v>
+        <v>993.64400000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.976000</v>
+        <v>-123.976</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>64913.086296</v>
+        <v>64913.086296000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.031413</v>
+        <v>18.031413000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.606000</v>
+        <v>-142.60599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>64924.101944</v>
+        <v>64924.101944000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.034473</v>
+        <v>18.034472999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.631000</v>
+        <v>-226.631</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>64935.600702</v>
+        <v>64935.600702000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.037667</v>
+        <v>18.037666999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.714000</v>
+        <v>-360.714</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>64946.342090</v>
+        <v>64946.342089999998</v>
       </c>
       <c r="BO15" s="1">
         <v>18.040651</v>
       </c>
       <c r="BP15" s="1">
-        <v>1259.940000</v>
+        <v>1259.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.030000</v>
+        <v>-567.03</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>64957.255036</v>
+        <v>64957.255036000002</v>
       </c>
       <c r="BT15" s="1">
         <v>18.043682</v>
       </c>
       <c r="BU15" s="1">
-        <v>1406.870000</v>
+        <v>1406.87</v>
       </c>
       <c r="BV15" s="1">
-        <v>-787.029000</v>
+        <v>-787.029</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>64968.147214</v>
+        <v>64968.147213999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.046708</v>
+        <v>18.046707999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1566.680000</v>
+        <v>1566.68</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1015.840000</v>
+        <v>-1015.84</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>64980.493102</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.050137</v>
+        <v>18.050136999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1968.970000</v>
+        <v>1968.97</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1550.890000</v>
+        <v>-1550.89</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>64808.996379</v>
+        <v>64808.996378999997</v>
       </c>
       <c r="B16" s="1">
         <v>18.002499</v>
       </c>
       <c r="C16" s="1">
-        <v>898.728000</v>
+        <v>898.72799999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.070000</v>
+        <v>-197.07</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>64819.450085</v>
+        <v>64819.450084999997</v>
       </c>
       <c r="G16" s="1">
-        <v>18.005403</v>
+        <v>18.005403000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.259000</v>
+        <v>916.25900000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.650000</v>
+        <v>-167.65</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>64829.958822</v>
+        <v>64829.958822000001</v>
       </c>
       <c r="L16" s="1">
         <v>18.008322</v>
       </c>
       <c r="M16" s="1">
-        <v>939.104000</v>
+        <v>939.10400000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.172000</v>
+        <v>-120.172</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>64840.506216</v>
+        <v>64840.506216000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.011252</v>
+        <v>18.011251999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>946.006000</v>
+        <v>946.00599999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.681000</v>
+        <v>-104.681</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>64851.246088</v>
       </c>
       <c r="V16" s="1">
-        <v>18.014235</v>
+        <v>18.014234999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>952.686000</v>
+        <v>952.68600000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.770900</v>
+        <v>-90.770899999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>64861.278171</v>
+        <v>64861.278170999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.017022</v>
+        <v>18.017022000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.948000</v>
+        <v>959.94799999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.902400</v>
+        <v>-80.9024</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>64871.410943</v>
+        <v>64871.410943000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.019836</v>
+        <v>18.019836000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.945000</v>
+        <v>964.94500000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.321400</v>
+        <v>-80.321399999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>64881.618114</v>
+        <v>64881.618113999997</v>
       </c>
       <c r="AK16" s="1">
         <v>18.022672</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.986000</v>
+        <v>972.98599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.829000</v>
+        <v>-87.828999999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>64891.739507</v>
+        <v>64891.739506999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.025483</v>
+        <v>18.025483000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.201000</v>
+        <v>982.20100000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.603000</v>
+        <v>-102.60299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>64902.436721</v>
+        <v>64902.436720999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.028455</v>
+        <v>18.028455000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.631000</v>
+        <v>993.63099999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.977000</v>
+        <v>-123.977</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>64913.449894</v>
+        <v>64913.449893999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.031514</v>
+        <v>18.031514000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.589000</v>
+        <v>-142.589</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>64924.825618</v>
+        <v>64924.825618000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.034674</v>
+        <v>18.034673999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.648000</v>
+        <v>-226.648</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>64935.977657</v>
+        <v>64935.977657000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>18.037772</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.698000</v>
+        <v>-360.69799999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>64946.728938</v>
@@ -4274,255 +4690,255 @@
         <v>18.040758</v>
       </c>
       <c r="BP16" s="1">
-        <v>1259.970000</v>
+        <v>1259.97</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.036000</v>
+        <v>-567.03599999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>64957.666748</v>
+        <v>64957.666748000003</v>
       </c>
       <c r="BT16" s="1">
         <v>18.043796</v>
       </c>
       <c r="BU16" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="BV16" s="1">
-        <v>-787.074000</v>
+        <v>-787.07399999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>64968.566302</v>
+        <v>64968.566301999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.046824</v>
+        <v>18.046824000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1566.670000</v>
+        <v>1566.67</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1015.680000</v>
+        <v>-1015.68</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>64981.329356</v>
+        <v>64981.329356000002</v>
       </c>
       <c r="CD16" s="1">
         <v>18.050369</v>
       </c>
       <c r="CE16" s="1">
-        <v>1969.670000</v>
+        <v>1969.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1549.670000</v>
+        <v>-1549.67</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>64809.348527</v>
+        <v>64809.348527000002</v>
       </c>
       <c r="B17" s="1">
-        <v>18.002597</v>
+        <v>18.002597000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>898.852000</v>
+        <v>898.85199999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.128000</v>
+        <v>-197.12799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>64819.795266</v>
+        <v>64819.795266000001</v>
       </c>
       <c r="G17" s="1">
         <v>18.005499</v>
       </c>
       <c r="H17" s="1">
-        <v>916.130000</v>
+        <v>916.13</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.457000</v>
+        <v>-167.45699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>64830.304996</v>
+        <v>64830.304995999999</v>
       </c>
       <c r="L17" s="1">
-        <v>18.008418</v>
+        <v>18.008417999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>939.164000</v>
+        <v>939.16399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.184000</v>
+        <v>-120.184</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>64840.921863</v>
+        <v>64840.921863000003</v>
       </c>
       <c r="Q17" s="1">
         <v>18.011367</v>
       </c>
       <c r="R17" s="1">
-        <v>945.995000</v>
+        <v>945.995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.696000</v>
+        <v>-104.696</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>64851.356728</v>
+        <v>64851.356727999999</v>
       </c>
       <c r="V17" s="1">
-        <v>18.014266</v>
+        <v>18.014265999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>952.639000</v>
+        <v>952.63900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.718900</v>
+        <v>-90.718900000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>64861.570810</v>
+        <v>64861.570809999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.017103</v>
+        <v>18.017102999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.006000</v>
+        <v>960.00599999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.973000</v>
+        <v>-80.972999999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>64871.755165</v>
+        <v>64871.755165000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.019932</v>
+        <v>18.019932000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.996000</v>
+        <v>964.99599999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.194400</v>
+        <v>-80.194400000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>64881.968287</v>
+        <v>64881.968287000003</v>
       </c>
       <c r="AK17" s="1">
         <v>18.022769</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.974000</v>
+        <v>972.97400000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.830200</v>
+        <v>-87.830200000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>64892.101059</v>
+        <v>64892.101059000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.025584</v>
+        <v>18.025583999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.203000</v>
+        <v>982.20299999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.609000</v>
+        <v>-102.60899999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>64903.166803</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.028657</v>
+        <v>18.028656999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.656000</v>
+        <v>993.65599999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.988000</v>
+        <v>-123.988</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>64914.169558</v>
+        <v>64914.169558000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.031714</v>
+        <v>18.031714000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.590000</v>
+        <v>-142.59</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>64925.216456</v>
+        <v>64925.216456000002</v>
       </c>
       <c r="BE17" s="1">
         <v>18.034782</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.644000</v>
+        <v>-226.64400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>64936.351657</v>
+        <v>64936.351656999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>18.037875</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.710000</v>
+        <v>-360.71</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>64947.149049</v>
@@ -4531,709 +4947,709 @@
         <v>18.040875</v>
       </c>
       <c r="BP17" s="1">
-        <v>1259.930000</v>
+        <v>1259.93</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.049000</v>
+        <v>-567.04899999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>64958.408908</v>
+        <v>64958.408907999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.044002</v>
+        <v>18.044001999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="BV17" s="1">
-        <v>-787.035000</v>
+        <v>-787.03499999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>64969.061805</v>
+        <v>64969.061804999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.046962</v>
+        <v>18.046962000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1566.680000</v>
+        <v>1566.68</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1015.910000</v>
+        <v>-1015.91</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>64981.531229</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.050425</v>
+        <v>18.050425000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1968.800000</v>
+        <v>1968.8</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1548.930000</v>
+        <v>-1548.93</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>64809.694736</v>
+        <v>64809.694735999998</v>
       </c>
       <c r="B18" s="1">
-        <v>18.002693</v>
+        <v>18.002693000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>898.861000</v>
+        <v>898.86099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.190000</v>
+        <v>-197.19</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>64820.223811</v>
+        <v>64820.223811000003</v>
       </c>
       <c r="G18" s="1">
-        <v>18.005618</v>
+        <v>18.005617999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>916.083000</v>
+        <v>916.08299999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.257000</v>
+        <v>-167.25700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>64830.735525</v>
+        <v>64830.735524999996</v>
       </c>
       <c r="L18" s="1">
-        <v>18.008538</v>
+        <v>18.008538000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.167000</v>
+        <v>939.16700000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.225000</v>
+        <v>-120.22499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>64841.219494</v>
+        <v>64841.219493999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.011450</v>
+        <v>18.01145</v>
       </c>
       <c r="R18" s="1">
-        <v>945.987000</v>
+        <v>945.98699999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.705000</v>
+        <v>-104.705</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>64851.702409</v>
+        <v>64851.702408999998</v>
       </c>
       <c r="V18" s="1">
-        <v>18.014362</v>
+        <v>18.014361999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>952.663000</v>
+        <v>952.66300000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.756400</v>
+        <v>-90.756399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>64861.914539</v>
+        <v>64861.914538999998</v>
       </c>
       <c r="AA18" s="1">
         <v>18.017198</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.995000</v>
+        <v>959.995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.873500</v>
+        <v>-80.873500000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>64872.099902</v>
+        <v>64872.099902000002</v>
       </c>
       <c r="AF18" s="1">
         <v>18.020028</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.078000</v>
+        <v>965.07799999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.241800</v>
+        <v>-80.241799999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>64882.315487</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.022865</v>
+        <v>18.022864999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.969000</v>
+        <v>972.96900000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.826000</v>
+        <v>-87.825999999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>64892.820257</v>
+        <v>64892.820256999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.025783</v>
+        <v>18.025783000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.194000</v>
+        <v>982.19399999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.606000</v>
+        <v>-102.60599999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>64903.550247</v>
+        <v>64903.550246999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.028764</v>
+        <v>18.028763999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.655000</v>
+        <v>993.65499999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.979000</v>
+        <v>-123.979</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>64914.546131</v>
+        <v>64914.546131000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.031818</v>
+        <v>18.031818000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.589000</v>
+        <v>-142.589</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>64925.577543</v>
+        <v>64925.577542999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.034883</v>
+        <v>18.034883000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.636000</v>
+        <v>-226.636</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>64937.036155</v>
+        <v>64937.036155000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.038066</v>
+        <v>18.038066000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.810000</v>
+        <v>1128.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.725000</v>
+        <v>-360.72500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>64947.856842</v>
+        <v>64947.856842000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.041071</v>
+        <v>18.041070999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1259.930000</v>
+        <v>1259.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.022000</v>
+        <v>-567.02200000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>64958.530251</v>
+        <v>64958.530250999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.044036</v>
+        <v>18.044035999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="BV18" s="1">
-        <v>-787.073000</v>
+        <v>-787.07299999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>64969.413997</v>
+        <v>64969.413997000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.047059</v>
+        <v>18.047059000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1566.680000</v>
+        <v>1566.68</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>64982.046571</v>
+        <v>64982.046570999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.050568</v>
+        <v>18.050567999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1968.260000</v>
+        <v>1968.26</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1549.450000</v>
+        <v>-1549.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>64810.116832</v>
       </c>
       <c r="B19" s="1">
-        <v>18.002810</v>
+        <v>18.00281</v>
       </c>
       <c r="C19" s="1">
-        <v>898.842000</v>
+        <v>898.84199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.027000</v>
+        <v>-197.02699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>64820.504545</v>
+        <v>64820.504545000003</v>
       </c>
       <c r="G19" s="1">
         <v>18.005696</v>
       </c>
       <c r="H19" s="1">
-        <v>915.814000</v>
+        <v>915.81399999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.440000</v>
+        <v>-167.44</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>64831.015268</v>
+        <v>64831.015268000003</v>
       </c>
       <c r="L19" s="1">
-        <v>18.008615</v>
+        <v>18.008614999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>939.280000</v>
+        <v>939.28</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.132000</v>
+        <v>-120.13200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>64841.567158</v>
+        <v>64841.567157999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.011546</v>
+        <v>18.011545999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>945.933000</v>
+        <v>945.93299999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.672000</v>
+        <v>-104.672</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>64852.045639</v>
+        <v>64852.045639000004</v>
       </c>
       <c r="V19" s="1">
         <v>18.014457</v>
       </c>
       <c r="W19" s="1">
-        <v>952.611000</v>
+        <v>952.61099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.701100</v>
+        <v>-90.701099999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>64862.269177</v>
+        <v>64862.269177000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.017297</v>
+        <v>18.017296999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.994000</v>
+        <v>959.99400000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.890600</v>
+        <v>-80.890600000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>64872.785883</v>
+        <v>64872.785882999997</v>
       </c>
       <c r="AF19" s="1">
         <v>18.020218</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.962000</v>
+        <v>964.96199999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.277800</v>
+        <v>-80.277799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>64883.002446</v>
+        <v>64883.002445999999</v>
       </c>
       <c r="AK19" s="1">
         <v>18.023056</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.978000</v>
+        <v>972.97799999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.813500</v>
+        <v>-87.813500000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>64893.209618</v>
+        <v>64893.209618000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.025892</v>
+        <v>18.025891999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.213000</v>
+        <v>982.21299999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.604000</v>
+        <v>-102.604</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>64903.913783</v>
+        <v>64903.913783000004</v>
       </c>
       <c r="AU19" s="1">
         <v>18.028865</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.634000</v>
+        <v>993.63400000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.991000</v>
+        <v>-123.991</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>64914.924468</v>
+        <v>64914.924467999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.031923</v>
+        <v>18.031922999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.310000</v>
+        <v>1003.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.614000</v>
+        <v>-142.614</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>64926.256565</v>
+        <v>64926.256565000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.035071</v>
+        <v>18.035070999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.633000</v>
+        <v>-226.63300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>64937.478551</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.038188</v>
+        <v>18.038188000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.800000</v>
+        <v>1128.8</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.723000</v>
+        <v>-360.72300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>64947.968968</v>
+        <v>64947.968968000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.041102</v>
+        <v>18.041101999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.039000</v>
+        <v>-567.03899999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>64958.965241</v>
+        <v>64958.965240999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.044157</v>
+        <v>18.044156999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="BV19" s="1">
-        <v>-787.128000</v>
+        <v>-787.12800000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>64969.835595</v>
+        <v>64969.835594999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.047177</v>
+        <v>18.047177000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1566.560000</v>
+        <v>1566.56</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1015.750000</v>
+        <v>-1015.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>64982.606077</v>
+        <v>64982.606076999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.050724</v>
+        <v>18.050723999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1969.490000</v>
+        <v>1969.49</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1548.980000</v>
+        <v>-1548.98</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>64810.396576</v>
+        <v>64810.396575999999</v>
       </c>
       <c r="B20" s="1">
-        <v>18.002888</v>
+        <v>18.002887999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>898.734000</v>
+        <v>898.73400000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.015000</v>
+        <v>-197.01499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>64820.846288</v>
+        <v>64820.846288000001</v>
       </c>
       <c r="G20" s="1">
-        <v>18.005791</v>
+        <v>18.005790999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>915.643000</v>
+        <v>915.64300000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.544000</v>
+        <v>-167.54400000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>64831.361012</v>
+        <v>64831.361012000001</v>
       </c>
       <c r="L20" s="1">
-        <v>18.008711</v>
+        <v>18.008711000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>939.224000</v>
+        <v>939.22400000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.128000</v>
+        <v>-120.128</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>64841.913860</v>
+        <v>64841.913860000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.011643</v>
+        <v>18.011642999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>945.981000</v>
+        <v>945.98099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.630000</v>
+        <v>-104.63</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>64852.731638</v>
+        <v>64852.731637999997</v>
       </c>
       <c r="V20" s="1">
-        <v>18.014648</v>
+        <v>18.014648000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>952.651000</v>
+        <v>952.65099999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.783300</v>
+        <v>-90.783299999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>64862.967419</v>
+        <v>64862.967419000001</v>
       </c>
       <c r="AA20" s="1">
         <v>18.017491</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.896000</v>
+        <v>959.89599999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.942300</v>
+        <v>-80.942300000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>64873.130571</v>
+        <v>64873.130571000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.020314</v>
+        <v>18.020313999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.034000</v>
+        <v>965.03399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.316600</v>
+        <v>-80.316599999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>64883.360559</v>
+        <v>64883.360559000001</v>
       </c>
       <c r="AK20" s="1">
         <v>18.023156</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.991000</v>
+        <v>972.99099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.846600</v>
+        <v>-87.846599999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>64893.569216</v>
+        <v>64893.569216000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.025991</v>
+        <v>18.025991000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.214000</v>
+        <v>982.21400000000006</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.606000</v>
+        <v>-102.60599999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>64904.599745</v>
@@ -5242,360 +5658,360 @@
         <v>18.029055</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.653000</v>
+        <v>993.65300000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.007000</v>
+        <v>-124.00700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>64915.597044</v>
+        <v>64915.597044000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.032110</v>
+        <v>18.032109999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.585000</v>
+        <v>-142.58500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>64926.685110</v>
+        <v>64926.685109999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.035190</v>
+        <v>18.03519</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.608000</v>
+        <v>-226.608</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>64937.852037</v>
+        <v>64937.852036999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.038292</v>
+        <v>18.038291999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.729000</v>
+        <v>-360.72899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>64948.391032</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.041220</v>
+        <v>18.041219999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.022000</v>
+        <v>-567.02200000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>64959.377944</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.044272</v>
+        <v>18.044271999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1406.840000</v>
+        <v>1406.84</v>
       </c>
       <c r="BV20" s="1">
-        <v>-787.048000</v>
+        <v>-787.048</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>64970.266092</v>
+        <v>64970.266091999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.047296</v>
+        <v>18.047295999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1566.560000</v>
+        <v>1566.56</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1015.820000</v>
+        <v>-1015.82</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>64983.124378</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.050868</v>
+        <v>18.050868000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1968.220000</v>
+        <v>1968.22</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1549.690000</v>
+        <v>-1549.69</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>64810.736831</v>
+        <v>64810.736831000002</v>
       </c>
       <c r="B21" s="1">
-        <v>18.002982</v>
+        <v>18.002981999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>898.727000</v>
+        <v>898.72699999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.965000</v>
+        <v>-196.965</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>64821.195504</v>
+        <v>64821.195504000003</v>
       </c>
       <c r="G21" s="1">
-        <v>18.005888</v>
+        <v>18.005887999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.768000</v>
+        <v>916.76800000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.409000</v>
+        <v>-167.40899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>64831.706193</v>
+        <v>64831.706192999998</v>
       </c>
       <c r="L21" s="1">
-        <v>18.008807</v>
+        <v>18.008807000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>939.345000</v>
+        <v>939.34500000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.105000</v>
+        <v>-120.105</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>64842.611236</v>
+        <v>64842.611235999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.011836</v>
+        <v>18.011835999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>945.984000</v>
+        <v>945.98400000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.649000</v>
+        <v>-104.649</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>64853.074872</v>
+        <v>64853.074871999997</v>
       </c>
       <c r="V21" s="1">
-        <v>18.014743</v>
+        <v>18.014742999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>952.611000</v>
+        <v>952.61099999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.800100</v>
+        <v>-90.8001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>64863.311774</v>
+        <v>64863.311774000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.017587</v>
+        <v>18.017586999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.049000</v>
+        <v>960.04899999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.841800</v>
+        <v>-80.841800000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>64873.473307</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.020409</v>
+        <v>18.020409000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.983000</v>
+        <v>964.98299999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.134500</v>
+        <v>-80.134500000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>64883.707298</v>
+        <v>64883.707298000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.023252</v>
+        <v>18.023251999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.962000</v>
+        <v>972.96199999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.844100</v>
+        <v>-87.844099999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>64894.251216</v>
+        <v>64894.251215999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.026181</v>
+        <v>18.026181000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.210000</v>
+        <v>982.21</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.598000</v>
+        <v>-102.598</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>64905.035233</v>
+        <v>64905.035233000002</v>
       </c>
       <c r="AU21" s="1">
         <v>18.029176</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.629000</v>
+        <v>993.62900000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.979000</v>
+        <v>-123.979</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>64916.007730</v>
+        <v>64916.007729999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.032224</v>
+        <v>18.032223999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.584000</v>
+        <v>-142.584</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>64927.044214</v>
+        <v>64927.044214000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.035290</v>
+        <v>18.03529</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.625000</v>
+        <v>-226.625</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>64938.231510</v>
+        <v>64938.231509999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.038398</v>
+        <v>18.038398000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.740000</v>
+        <v>1128.74</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.702000</v>
+        <v>-360.702</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>64948.785849</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.041329</v>
+        <v>18.041329000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1259.940000</v>
+        <v>1259.94</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.018000</v>
+        <v>-567.01800000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>64959.804969</v>
+        <v>64959.804968999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.044390</v>
+        <v>18.04439</v>
       </c>
       <c r="BU21" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-787.060000</v>
+        <v>-787.06</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>64970.694635</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.047415</v>
+        <v>18.047415000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1566.780000</v>
+        <v>1566.78</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1015.770000</v>
+        <v>-1015.77</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>64983.643227</v>
@@ -5604,195 +6020,195 @@
         <v>18.051012</v>
       </c>
       <c r="CE21" s="1">
-        <v>1969.050000</v>
+        <v>1969.05</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1550.870000</v>
+        <v>-1550.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>64811.081086</v>
+        <v>64811.081085999998</v>
       </c>
       <c r="B22" s="1">
-        <v>18.003078</v>
+        <v>18.003077999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>898.711000</v>
+        <v>898.71100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.059000</v>
+        <v>-197.059</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>64821.881466</v>
+        <v>64821.881465999999</v>
       </c>
       <c r="G22" s="1">
-        <v>18.006078</v>
+        <v>18.006077999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>916.161000</v>
+        <v>916.16099999999994</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.041000</v>
+        <v>-167.041</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>64832.402081</v>
       </c>
       <c r="L22" s="1">
-        <v>18.009001</v>
+        <v>18.009001000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.201000</v>
+        <v>939.20100000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.236000</v>
+        <v>-120.236</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>64842.959955</v>
+        <v>64842.959954999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.011933</v>
+        <v>18.011932999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>945.991000</v>
+        <v>945.99099999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.661000</v>
+        <v>-104.661</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>64853.417573</v>
+        <v>64853.417572999999</v>
       </c>
       <c r="V22" s="1">
-        <v>18.014838</v>
+        <v>18.014838000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>952.669000</v>
+        <v>952.66899999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.601900</v>
+        <v>-90.601900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>64863.661975</v>
+        <v>64863.661975000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.017684</v>
+        <v>18.017683999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.993000</v>
+        <v>959.99300000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.900400</v>
+        <v>-80.900400000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>64874.131529</v>
+        <v>64874.131528999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.020592</v>
+        <v>18.020592000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.044000</v>
+        <v>965.04399999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.325600</v>
+        <v>-80.325599999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>64884.283117</v>
+        <v>64884.283116999999</v>
       </c>
       <c r="AK22" s="1">
         <v>18.023412</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.965000</v>
+        <v>972.96500000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.855300</v>
+        <v>-87.8553</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>64894.670832</v>
+        <v>64894.670832000003</v>
       </c>
       <c r="AP22" s="1">
         <v>18.026297</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.202000</v>
+        <v>982.202</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.602000</v>
+        <v>-102.602</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>64905.397841</v>
+        <v>64905.397840999998</v>
       </c>
       <c r="AU22" s="1">
         <v>18.029277</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.644000</v>
+        <v>993.64400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.992000</v>
+        <v>-123.992</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>64916.383698</v>
+        <v>64916.383697999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.032329</v>
+        <v>18.032329000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.310000</v>
+        <v>1003.31</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.604000</v>
+        <v>-142.60400000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>64927.406819</v>
+        <v>64927.406819000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.035391</v>
+        <v>18.035391000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.110000</v>
+        <v>1049.1099999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.714000</v>
+        <v>-226.714</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>64938.653113</v>
@@ -5801,180 +6217,180 @@
         <v>18.038515</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.704000</v>
+        <v>-360.70400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>64949.217900</v>
+        <v>64949.217900000003</v>
       </c>
       <c r="BO22" s="1">
         <v>18.041449</v>
       </c>
       <c r="BP22" s="1">
-        <v>1259.960000</v>
+        <v>1259.96</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.053000</v>
+        <v>-567.053</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>64960.234008</v>
+        <v>64960.234007999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.044509</v>
+        <v>18.044509000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="BV22" s="1">
-        <v>-787.066000</v>
+        <v>-787.06600000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>64971.126154</v>
+        <v>64971.126153999998</v>
       </c>
       <c r="BY22" s="1">
         <v>18.047535</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1566.560000</v>
+        <v>1566.56</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1015.820000</v>
+        <v>-1015.82</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>64984.161016</v>
+        <v>64984.161015999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.051156</v>
+        <v>18.051155999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1970.010000</v>
+        <v>1970.01</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1549.730000</v>
+        <v>-1549.73</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>64811.762092</v>
+        <v>64811.762091999997</v>
       </c>
       <c r="B23" s="1">
-        <v>18.003267</v>
+        <v>18.003267000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>898.860000</v>
+        <v>898.86</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.148000</v>
+        <v>-197.148</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>64822.226655</v>
+        <v>64822.226654999999</v>
       </c>
       <c r="G23" s="1">
-        <v>18.006174</v>
+        <v>18.006174000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>915.977000</v>
+        <v>915.97699999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.509000</v>
+        <v>-167.50899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>64832.754241</v>
+        <v>64832.754241000002</v>
       </c>
       <c r="L23" s="1">
-        <v>18.009098</v>
+        <v>18.009098000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>939.167000</v>
+        <v>939.16700000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.032000</v>
+        <v>-120.032</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>64843.309106</v>
+        <v>64843.309106000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.012030</v>
+        <v>18.012029999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>946.013000</v>
+        <v>946.01300000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.711000</v>
+        <v>-104.711</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>64854.078246</v>
+        <v>64854.078245999997</v>
       </c>
       <c r="V23" s="1">
-        <v>18.015022</v>
+        <v>18.015021999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>952.614000</v>
+        <v>952.61400000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.710800</v>
+        <v>-90.710800000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>64864.312727</v>
+        <v>64864.312726999997</v>
       </c>
       <c r="AA23" s="1">
         <v>18.017865</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.012000</v>
+        <v>960.01199999999994</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.901600</v>
+        <v>-80.901600000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>64874.503499</v>
+        <v>64874.503498999999</v>
       </c>
       <c r="AF23" s="1">
         <v>18.020695</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.082000</v>
+        <v>965.08199999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.270700</v>
+        <v>-80.270700000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>64884.405132</v>
@@ -5983,784 +6399,784 @@
         <v>18.023446</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.975000</v>
+        <v>972.97500000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.825900</v>
+        <v>-87.825900000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>64895.032910</v>
+        <v>64895.032910000002</v>
       </c>
       <c r="AP23" s="1">
         <v>18.026398</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.188000</v>
+        <v>982.18799999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.604000</v>
+        <v>-102.604</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>64905.763858</v>
+        <v>64905.763857999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.029379</v>
+        <v>18.029378999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.634000</v>
+        <v>993.63400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.987000</v>
+        <v>-123.98699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>64916.763138</v>
+        <v>64916.763138000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.032434</v>
+        <v>18.032433999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.605000</v>
+        <v>-142.60499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>64927.991107</v>
+        <v>64927.991107000002</v>
       </c>
       <c r="BE23" s="1">
         <v>18.035553</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.960000</v>
+        <v>1048.96</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.634000</v>
+        <v>-226.63399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>64939.007716</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.038613</v>
+        <v>18.038613000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.760000</v>
+        <v>1128.76</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.717000</v>
+        <v>-360.71699999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>64949.609702</v>
+        <v>64949.609702000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.041558</v>
+        <v>18.041557999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1259.950000</v>
+        <v>1259.95</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.081000</v>
+        <v>-567.08100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>64960.645688</v>
+        <v>64960.645687999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.044624</v>
+        <v>18.044623999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1406.810000</v>
+        <v>1406.81</v>
       </c>
       <c r="BV23" s="1">
-        <v>-787.078000</v>
+        <v>-787.07799999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>64971.547754</v>
+        <v>64971.547753999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.047652</v>
+        <v>18.047651999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1566.600000</v>
+        <v>1566.6</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1015.800000</v>
+        <v>-1015.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>64984.679374</v>
+        <v>64984.679373999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.051300</v>
+        <v>18.051300000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1968.700000</v>
+        <v>1968.7</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1548.830000</v>
+        <v>-1548.83</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>64812.107772</v>
+        <v>64812.107772000003</v>
       </c>
       <c r="B24" s="1">
         <v>18.003363</v>
       </c>
       <c r="C24" s="1">
-        <v>898.801000</v>
+        <v>898.80100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.011000</v>
+        <v>-197.011</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>64822.569390</v>
+        <v>64822.569389999997</v>
       </c>
       <c r="G24" s="1">
         <v>18.006269</v>
       </c>
       <c r="H24" s="1">
-        <v>916.019000</v>
+        <v>916.01900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.440000</v>
+        <v>-167.44</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>64833.097507</v>
+        <v>64833.097506999999</v>
       </c>
       <c r="L24" s="1">
-        <v>18.009194</v>
+        <v>18.009194000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.224000</v>
+        <v>939.22400000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.111000</v>
+        <v>-120.111</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>64843.969058</v>
+        <v>64843.969058000002</v>
       </c>
       <c r="Q24" s="1">
         <v>18.012214</v>
       </c>
       <c r="R24" s="1">
-        <v>945.942000</v>
+        <v>945.94200000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.674000</v>
+        <v>-104.67400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>64854.449286</v>
+        <v>64854.449286000003</v>
       </c>
       <c r="V24" s="1">
-        <v>18.015125</v>
+        <v>18.015125000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>952.656000</v>
+        <v>952.65599999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.718100</v>
+        <v>-90.718100000000007</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>64864.706518</v>
+        <v>64864.706517999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.017974</v>
+        <v>18.017973999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.100000</v>
+        <v>960.1</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.974300</v>
+        <v>-80.974299999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>64874.846729</v>
+        <v>64874.846728999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.020791</v>
+        <v>18.020790999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.020000</v>
+        <v>965.02</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.320800</v>
+        <v>-80.320800000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>64884.757293</v>
+        <v>64884.757293000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.023544</v>
+        <v>18.023544000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.994000</v>
+        <v>972.99400000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.828200</v>
+        <v>-87.828199999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>64895.392015</v>
+        <v>64895.392014999998</v>
       </c>
       <c r="AP24" s="1">
         <v>18.026498</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.200000</v>
+        <v>982.2</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>64906.193887</v>
+        <v>64906.193887000001</v>
       </c>
       <c r="AU24" s="1">
         <v>18.029498</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.649000</v>
+        <v>993.649</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.981000</v>
+        <v>-123.98099999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>64917.192709</v>
+        <v>64917.192709000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.032554</v>
+        <v>18.032554000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.602000</v>
+        <v>-142.602</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>64928.398787</v>
+        <v>64928.398786999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.035666</v>
+        <v>18.035665999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.950000</v>
+        <v>1048.95</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.618000</v>
+        <v>-226.61799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>64939.382207</v>
+        <v>64939.382207000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.038717</v>
+        <v>18.038716999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.770000</v>
+        <v>1128.77</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.672000</v>
+        <v>-360.67200000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>64950.042214</v>
+        <v>64950.042214000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.041678</v>
+        <v>18.041678000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1259.970000</v>
+        <v>1259.97</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.072000</v>
+        <v>-567.072</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>64961.076248</v>
+        <v>64961.076247999998</v>
       </c>
       <c r="BT24" s="1">
         <v>18.044743</v>
       </c>
       <c r="BU24" s="1">
-        <v>1406.790000</v>
+        <v>1406.79</v>
       </c>
       <c r="BV24" s="1">
-        <v>-787.093000</v>
+        <v>-787.09299999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>64971.967896</v>
+        <v>64971.967896000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.047769</v>
+        <v>18.047768999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1566.580000</v>
+        <v>1566.58</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>64985.196663</v>
+        <v>64985.196663000002</v>
       </c>
       <c r="CD24" s="1">
         <v>18.051444</v>
       </c>
       <c r="CE24" s="1">
-        <v>1967.820000</v>
+        <v>1967.82</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1550.300000</v>
+        <v>-1550.3</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>64812.445087</v>
       </c>
       <c r="B25" s="1">
-        <v>18.003457</v>
+        <v>18.003457000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>898.670000</v>
+        <v>898.67</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.175000</v>
+        <v>-197.17500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>64823.225598</v>
+        <v>64823.225597999997</v>
       </c>
       <c r="G25" s="1">
-        <v>18.006452</v>
+        <v>18.006451999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>916.278000</v>
+        <v>916.27800000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.385000</v>
+        <v>-167.38499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>64833.888628</v>
+        <v>64833.888628000001</v>
       </c>
       <c r="L25" s="1">
         <v>18.009414</v>
       </c>
       <c r="M25" s="1">
-        <v>939.234000</v>
+        <v>939.23400000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.062000</v>
+        <v>-120.062</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>64844.355171</v>
+        <v>64844.355171000003</v>
       </c>
       <c r="Q25" s="1">
         <v>18.012321</v>
       </c>
       <c r="R25" s="1">
-        <v>945.961000</v>
+        <v>945.96100000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.708000</v>
+        <v>-104.708</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>64854.793475</v>
+        <v>64854.793474999999</v>
       </c>
       <c r="V25" s="1">
-        <v>18.015220</v>
+        <v>18.015219999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>952.697000</v>
+        <v>952.697</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.786700</v>
+        <v>-90.786699999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>64865.053223</v>
+        <v>64865.053223000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.018070</v>
+        <v>18.018070000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.041000</v>
+        <v>960.04100000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.949300</v>
+        <v>-80.949299999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>64875.194922</v>
+        <v>64875.194922000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.020887</v>
+        <v>18.020886999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.021000</v>
+        <v>965.02099999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.304600</v>
+        <v>-80.304599999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>64885.187819</v>
+        <v>64885.187818999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.023663</v>
+        <v>18.023662999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.970000</v>
+        <v>972.97</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.839400</v>
+        <v>-87.839399999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>64895.812162</v>
+        <v>64895.812162000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.026614</v>
+        <v>18.026613999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.196000</v>
+        <v>982.19600000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.617000</v>
+        <v>-102.617</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>64906.493473</v>
+        <v>64906.493473000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.029582</v>
+        <v>18.029582000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.638000</v>
+        <v>993.63800000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.999000</v>
+        <v>-123.999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>64917.482833</v>
+        <v>64917.482833000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.032634</v>
+        <v>18.032634000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.587000</v>
+        <v>-142.58699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>64928.757408</v>
+        <v>64928.757407999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.035766</v>
+        <v>18.035765999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.634000</v>
+        <v>-226.63399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>64939.758163</v>
+        <v>64939.758162999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.038822</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.780000</v>
+        <v>1128.78</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.702000</v>
+        <v>-360.702</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>64950.433061</v>
+        <v>64950.433061000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.041787</v>
+        <v>18.041786999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.910000</v>
+        <v>1259.9100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.010000</v>
+        <v>-567.01</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>64961.501814</v>
+        <v>64961.501814000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.044862</v>
+        <v>18.044861999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1406.820000</v>
+        <v>1406.82</v>
       </c>
       <c r="BV25" s="1">
-        <v>-787.065000</v>
+        <v>-787.06500000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>64972.395448</v>
+        <v>64972.395448000003</v>
       </c>
       <c r="BY25" s="1">
         <v>18.047888</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1566.520000</v>
+        <v>1566.52</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1015.820000</v>
+        <v>-1015.82</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>64985.716490</v>
+        <v>64985.716489999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.051588</v>
+        <v>18.051587999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1967.810000</v>
+        <v>1967.81</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1550.030000</v>
+        <v>-1550.03</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>64813.100268</v>
+        <v>64813.100268000002</v>
       </c>
       <c r="B26" s="1">
         <v>18.003639</v>
       </c>
       <c r="C26" s="1">
-        <v>898.836000</v>
+        <v>898.83600000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.020000</v>
+        <v>-197.02</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>64823.607549</v>
       </c>
       <c r="G26" s="1">
-        <v>18.006558</v>
+        <v>18.006557999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>916.092000</v>
+        <v>916.09199999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.519000</v>
+        <v>-167.51900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>64834.133616</v>
+        <v>64834.133615999999</v>
       </c>
       <c r="L26" s="1">
-        <v>18.009482</v>
+        <v>18.009481999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>939.152000</v>
+        <v>939.15200000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.109000</v>
+        <v>-120.10899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>64844.704385</v>
+        <v>64844.704384999997</v>
       </c>
       <c r="Q26" s="1">
         <v>18.012418</v>
       </c>
       <c r="R26" s="1">
-        <v>945.973000</v>
+        <v>945.97299999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.651000</v>
+        <v>-104.651</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>64855.134723</v>
+        <v>64855.134723000003</v>
       </c>
       <c r="V26" s="1">
-        <v>18.015315</v>
+        <v>18.015315000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>952.653000</v>
+        <v>952.65300000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.719000</v>
+        <v>-90.718999999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>64865.405413</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.018168</v>
+        <v>18.018167999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.034000</v>
+        <v>960.03399999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.936100</v>
+        <v>-80.936099999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>64875.637879</v>
+        <v>64875.637879000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.021011</v>
+        <v>18.021011000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.931000</v>
+        <v>964.93100000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.233800</v>
+        <v>-80.233800000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>64885.461645</v>
+        <v>64885.461645000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.023739</v>
+        <v>18.023738999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.968000</v>
+        <v>972.96799999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.842200</v>
+        <v>-87.842200000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>64896.113695</v>
@@ -6769,135 +7185,136 @@
         <v>18.026698</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.171000</v>
+        <v>982.17100000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.585000</v>
+        <v>-102.58499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>64906.860015</v>
+        <v>64906.860014999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.029683</v>
+        <v>18.029682999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.641000</v>
+        <v>993.64099999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.988000</v>
+        <v>-123.988</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>64917.836976</v>
+        <v>64917.836975999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.032732</v>
+        <v>18.032731999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.604000</v>
+        <v>-142.60400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>64929.118514</v>
+        <v>64929.118514000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.035866</v>
+        <v>18.035865999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.654000</v>
+        <v>-226.654</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>64940.531922</v>
+        <v>64940.531922000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.039037</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.760000</v>
+        <v>1128.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.736000</v>
+        <v>-360.73599999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>64950.864582</v>
+        <v>64950.864582000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.041907</v>
+        <v>18.041906999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1259.910000</v>
+        <v>1259.9100000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.020000</v>
+        <v>-567.02</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>64961.913476</v>
+        <v>64961.913476000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.044976</v>
+        <v>18.044975999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1406.780000</v>
+        <v>1406.78</v>
       </c>
       <c r="BV26" s="1">
-        <v>-787.127000</v>
+        <v>-787.12699999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>64972.812584</v>
+        <v>64972.812583999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.048003</v>
+        <v>18.048003000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1566.550000</v>
+        <v>1566.55</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1015.680000</v>
+        <v>-1015.68</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>64986.576037</v>
+        <v>64986.576036999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.051827</v>
+        <v>18.051826999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1968.250000</v>
+        <v>1968.25</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1549.060000</v>
+        <v>-1549.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>